--- a/AAA - Revision Asignacion con ajuste Manual (version Vacaciones 2024).xlsx
+++ b/AAA - Revision Asignacion con ajuste Manual (version Vacaciones 2024).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,14 +537,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40940</v>
+        <v>41456</v>
       </c>
       <c r="C2" t="n">
-        <v>12.04383561643836</v>
+        <v>12.09315068493151</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27779</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>5.733927907840951</v>
+        <v>6.215593413784655</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -582,32 +582,32 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0.1251028806584362</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>41456</v>
       </c>
       <c r="C3" t="n">
-        <v>10.63013698630137</v>
+        <v>12.09315068493151</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>5.881428122230798</v>
+        <v>6.215593413784655</v>
       </c>
       <c r="G3" t="n">
-        <v>9.803921568627452</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1251028806584362</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -663,14 +663,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>41456</v>
+        <v>41640</v>
       </c>
       <c r="C4" t="n">
-        <v>10.63013698630137</v>
+        <v>11.58904109589041</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>5.881428122230798</v>
+        <v>6.272659886921544</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -726,14 +726,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>41640</v>
       </c>
       <c r="C5" t="n">
-        <v>10.12602739726027</v>
+        <v>11.58904109589041</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>5.934025097904697</v>
+        <v>6.272659886921544</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -789,25 +789,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>41640</v>
+        <v>41852</v>
       </c>
       <c r="C6" t="n">
-        <v>10.12602739726027</v>
+        <v>11.00821917808219</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yoda-Sin Noches</t>
+          <t>Knight-Tardes</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>5.934025097904697</v>
+        <v>6.338410388579262</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -852,14 +852,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>41852</v>
       </c>
       <c r="C7" t="n">
-        <v>9.545205479452054</v>
+        <v>11.00821917808219</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>5.994625961181145</v>
+        <v>6.338410388579262</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -915,14 +915,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>41852</v>
       </c>
       <c r="C8" t="n">
-        <v>9.545205479452054</v>
+        <v>11.00821917808219</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>5.994625961181145</v>
+        <v>6.338410388579262</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -978,14 +978,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41852</v>
+        <v>42736</v>
       </c>
       <c r="C9" t="n">
-        <v>9.545205479452054</v>
+        <v>8.586301369863014</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>5.994625961181145</v>
+        <v>6.61257757473692</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1041,14 +1041,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42736</v>
+        <v>43040</v>
       </c>
       <c r="C10" t="n">
-        <v>7.123287671232877</v>
+        <v>7.753424657534246</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>6.247320126918789</v>
+        <v>6.706861312963085</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.1164750957854406</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1104,34 +1104,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43040</v>
+        <v>43113</v>
       </c>
       <c r="C11" t="n">
-        <v>6.29041095890411</v>
+        <v>7.553424657534246</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Knight-Tardes</t>
+          <t>Padawan-Sin Fijo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>6.334219478032186</v>
+        <v>6.729501815892393</v>
       </c>
       <c r="G11" t="n">
-        <v>11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1164750957854406</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1167,14 +1167,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43113</v>
+        <v>43770</v>
       </c>
       <c r="C12" t="n">
-        <v>6.090410958904109</v>
+        <v>5.753424657534246</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>6.35508675642455</v>
+        <v>6.933266342256174</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1230,14 +1230,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43770</v>
+        <v>44440</v>
       </c>
       <c r="C13" t="n">
-        <v>4.29041095890411</v>
+        <v>3.917808219178082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>6.542892261955807</v>
+        <v>7.141062739004625</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.43137254901961</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.1235772357723577</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1293,14 +1293,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44440</v>
+        <v>44713</v>
       </c>
       <c r="C14" t="n">
-        <v>2.454794520547945</v>
+        <v>3.16986301369863</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>6.734413858159677</v>
+        <v>7.225732017082725</v>
       </c>
       <c r="G14" t="n">
-        <v>78.43137254901961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1235772357723577</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1356,14 +1356,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>44713</v>
       </c>
       <c r="C15" t="n">
-        <v>1.706849315068493</v>
+        <v>3.16986301369863</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>6.812451762284538</v>
+        <v>7.225732017082725</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1419,14 +1419,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44713</v>
+        <v>45383</v>
       </c>
       <c r="C16" t="n">
-        <v>1.706849315068493</v>
+        <v>1.334246575342466</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>6.812451762284538</v>
+        <v>7.433528413831178</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1476,69 +1476,6 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Recluta1</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.706849315068493</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Padawan-Sin Fijo</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>15</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.812451762284538</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/AAA - Revision Asignacion con ajuste Manual (version Vacaciones 2024).xlsx
+++ b/AAA - Revision Asignacion con ajuste Manual (version Vacaciones 2024).xlsx
@@ -544,7 +544,7 @@
         <v>41456</v>
       </c>
       <c r="C2" t="n">
-        <v>12.09315068493151</v>
+        <v>10.92328767123288</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>6.215593413784655</v>
+        <v>6.224379325864565</v>
       </c>
       <c r="G2" t="n">
         <v>9.803921568627452</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1251028806584362</v>
+        <v>0.3415730337078651</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>41456</v>
       </c>
       <c r="C3" t="n">
-        <v>12.09315068493151</v>
+        <v>10.92328767123288</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>6.215593413784655</v>
+        <v>6.224379325864565</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>41640</v>
       </c>
       <c r="C4" t="n">
-        <v>11.58904109589041</v>
+        <v>10.41917808219178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>6.272659886921544</v>
+        <v>6.280334269970441</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>41640</v>
       </c>
       <c r="C5" t="n">
-        <v>11.58904109589041</v>
+        <v>10.41917808219178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>6.272659886921544</v>
+        <v>6.280334269970441</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>41852</v>
       </c>
       <c r="C6" t="n">
-        <v>11.00821917808219</v>
+        <v>9.838356164383562</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>6.338410388579262</v>
+        <v>6.344804096875039</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>41852</v>
       </c>
       <c r="C7" t="n">
-        <v>11.00821917808219</v>
+        <v>9.838356164383562</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>6.338410388579262</v>
+        <v>6.344804096875039</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>41852</v>
       </c>
       <c r="C8" t="n">
-        <v>11.00821917808219</v>
+        <v>9.838356164383562</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>6.338410388579262</v>
+        <v>6.344804096875039</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>42736</v>
       </c>
       <c r="C9" t="n">
-        <v>8.586301369863014</v>
+        <v>7.416438356164384</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>6.61257757473692</v>
+        <v>6.613631110948924</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>43040</v>
       </c>
       <c r="C10" t="n">
-        <v>7.753424657534246</v>
+        <v>6.583561643835616</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>6.706861312963085</v>
+        <v>6.706078409906459</v>
       </c>
       <c r="G10" t="n">
         <v>11.76470588235294</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1164750957854406</v>
+        <v>0.2841121495327102</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>43113</v>
       </c>
       <c r="C11" t="n">
-        <v>7.553424657534246</v>
+        <v>6.383561643835616</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>6.729501815892393</v>
+        <v>6.728277925774551</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>43770</v>
       </c>
       <c r="C12" t="n">
-        <v>5.753424657534246</v>
+        <v>4.583561643835616</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>6.933266342256174</v>
+        <v>6.928073568587381</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>44440</v>
       </c>
       <c r="C13" t="n">
-        <v>3.917808219178082</v>
+        <v>2.747945205479452</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>7.141062739004625</v>
+        <v>7.131822549842476</v>
       </c>
       <c r="G13" t="n">
         <v>78.43137254901961</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1235772357723577</v>
+        <v>0.3304347826086956</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>44713</v>
       </c>
       <c r="C14" t="n">
-        <v>3.16986301369863</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>7.225732017082725</v>
+        <v>7.214842657129998</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>44713</v>
       </c>
       <c r="C15" t="n">
-        <v>3.16986301369863</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>7.225732017082725</v>
+        <v>7.214842657129998</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>45383</v>
       </c>
       <c r="C16" t="n">
-        <v>1.334246575342466</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>7.433528413831178</v>
+        <v>7.418591638385093</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
